--- a/flow-entity/src/main/resources/docs/工作流（ecmp_flow）数据结构.xlsx
+++ b/flow-entity/src/main/resources/docs/工作流（ecmp_flow）数据结构.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F17824A-4F01-48DF-A112-8A4F5DE80553}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B37F865-BDE5-4C36-909F-211D1F5F1441}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="应用模块" sheetId="2" r:id="rId2"/>
     <sheet name="业务实体模型" sheetId="10" r:id="rId3"/>
     <sheet name="业务实体工作界面配置" sheetId="11" r:id="rId4"/>
-    <sheet name="业务实体自定义执行人配置" sheetId="12" r:id="rId5"/>
-    <sheet name="流程定义版本" sheetId="13" r:id="rId6"/>
-    <sheet name="流程定义" sheetId="14" r:id="rId7"/>
-    <sheet name="自定义执行人配置" sheetId="15" r:id="rId8"/>
-    <sheet name="流程历史" sheetId="16" r:id="rId9"/>
-    <sheet name="流程实例" sheetId="18" r:id="rId10"/>
-    <sheet name="服务地址管理" sheetId="19" r:id="rId11"/>
-    <sheet name="流程固化执行人表" sheetId="20" r:id="rId12"/>
-    <sheet name="流程任务" sheetId="21" r:id="rId13"/>
-    <sheet name="流程类型" sheetId="22" r:id="rId14"/>
-    <sheet name="工作页面地址管理" sheetId="23" r:id="rId15"/>
+    <sheet name="流程定义版本" sheetId="13" r:id="rId5"/>
+    <sheet name="流程定义" sheetId="14" r:id="rId6"/>
+    <sheet name="自定义执行人配置" sheetId="15" r:id="rId7"/>
+    <sheet name="流程历史" sheetId="16" r:id="rId8"/>
+    <sheet name="流程实例" sheetId="18" r:id="rId9"/>
+    <sheet name="服务地址管理" sheetId="19" r:id="rId10"/>
+    <sheet name="流程固化执行人表" sheetId="20" r:id="rId11"/>
+    <sheet name="流程任务" sheetId="21" r:id="rId12"/>
+    <sheet name="流程类型" sheetId="22" r:id="rId13"/>
+    <sheet name="工作页面地址管理" sheetId="23" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="557">
   <si>
     <t>类名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -561,44 +560,12 @@
     <t>business_model_selfDefEmployee</t>
   </si>
   <si>
-    <t>business_model_selfDefEmployee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>BusinessModelSelfDefEmployee</t>
   </si>
   <si>
-    <t>BusinessModelSelfDefEmployee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>业务实体自定义执行人配置</t>
   </si>
   <si>
-    <t>业务实体自定义执行人配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>企业员工ID</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>用户名称</t>
-  </si>
-  <si>
-    <t>employeeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>employeeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>flow_def_version</t>
   </si>
   <si>
@@ -1937,6 +1904,72 @@
   </si>
   <si>
     <t>WorkPageUrl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_execute_status</t>
+  </si>
+  <si>
+    <t>flowExecuteStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程节点执行状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_check_service_aync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_call_service_aync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_before_call_service_aync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时调用检查服务是否异步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程结束前检查服务是否异步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认0</t>
+  </si>
+  <si>
+    <t>默认0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>endCallServiceAync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>endBeforeCallServiceAync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>startCheckServiceAync</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程结束调用服务是否异步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前一直有这个字段无需默认值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2415,18 +2448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -2448,7 +2481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
@@ -2459,7 +2492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>144</v>
       </c>
@@ -2470,125 +2503,125 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -2615,31 +2648,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAA2679-6452-4AB6-AD7A-944F41A8D7E4}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECC15D0-66EA-449C-A530-F82DF3E5C5A8}">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -2648,7 +2681,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2677,14 +2710,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2698,16 +2733,18 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>391</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2715,14 +2752,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>88</v>
       </c>
@@ -2734,16 +2773,18 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2753,18 +2794,18 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2772,18 +2813,18 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>367</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2791,18 +2832,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2810,18 +2851,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2829,56 +2870,56 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>397</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>375</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>399</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>377</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2886,18 +2927,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>379</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2905,18 +2946,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>381</v>
+        <v>73</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2924,18 +2965,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2943,18 +2984,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>383</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>384</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2962,18 +3003,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2981,198 +3022,8 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="9"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3182,31 +3033,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECC15D0-66EA-449C-A530-F82DF3E5C5A8}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E283231-BB4E-4EF2-8F1C-4701295625DD}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3215,7 +3066,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3244,16 +3095,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3267,37 +3116,39 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>384</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>355</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>383</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3307,18 +3158,18 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>405</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3328,18 +3179,18 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>265</v>
+        <v>418</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>265</v>
+        <v>406</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3347,56 +3198,60 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>419</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>420</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>147</v>
+        <v>410</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>148</v>
+        <v>411</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>412</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3404,18 +3259,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>422</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3423,18 +3278,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3442,18 +3297,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3461,18 +3316,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3480,18 +3335,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3499,18 +3354,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3518,18 +3373,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3537,18 +3392,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3556,8 +3411,46 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="9"/>
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3567,31 +3460,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E283231-BB4E-4EF2-8F1C-4701295625DD}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C4447B-9870-454A-9741-A5EEC3F95E13}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>411</v>
+        <v>523</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3600,7 +3493,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -3650,81 +3543,1045 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>393</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>364</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21C0E51-84A8-4197-8B34-40119C1532E7}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>392</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>413</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>414</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>427</v>
+        <v>149</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>416</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3732,60 +4589,56 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>428</v>
+        <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>417</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>418</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3793,18 +4646,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3812,18 +4665,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>457</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>458</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>459</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3831,18 +4684,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>460</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>461</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>462</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3850,18 +4703,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>463</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>464</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -3869,18 +4722,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>465</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>466</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>467</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3888,18 +4741,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>468</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>469</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>470</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3907,18 +4760,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>471</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>462</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -3926,18 +4779,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
+        <v>527</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -3945,18 +4798,18 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -3964,27 +4817,24 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3993,32 +4843,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C4447B-9870-454A-9741-A5EEC3F95E13}">
-  <dimension ref="A1:I50"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D19AB9-2716-47F1-B957-43BF39A2784D}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4027,7 +4877,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -4056,14 +4906,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
@@ -4077,109 +4929,117 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>499</v>
+        <v>261</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>450</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4187,16 +5047,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>502</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>452</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -4204,16 +5066,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>455</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -4221,37 +5085,37 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>505</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>462</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -4259,16 +5123,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>506</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>463</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -4276,18 +5142,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>308</v>
+        <v>466</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>309</v>
+        <v>467</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -4295,16 +5161,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -4312,18 +5180,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>509</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>462</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -4331,1420 +5199,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>533</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>534</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21C0E51-84A8-4197-8B34-40119C1532E7}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D19AB9-2716-47F1-B957-43BF39A2784D}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -5765,17 +5231,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
@@ -5792,7 +5258,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5821,7 +5287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -5844,7 +5310,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -5869,7 +5335,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -5890,7 +5356,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -5909,7 +5375,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -5928,7 +5394,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -5947,7 +5413,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -5966,7 +5432,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -5987,7 +5453,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -6006,7 +5472,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +5491,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -6044,7 +5510,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -6063,7 +5529,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -6082,7 +5548,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -6101,7 +5567,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -6120,7 +5586,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -6152,17 +5618,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>123</v>
       </c>
@@ -6179,7 +5645,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6208,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -6231,7 +5697,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -6250,7 +5716,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -6271,7 +5737,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>127</v>
       </c>
@@ -6292,7 +5758,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>128</v>
       </c>
@@ -6311,7 +5777,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
@@ -6330,7 +5796,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +5815,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>130</v>
       </c>
@@ -6370,7 +5836,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>131</v>
       </c>
@@ -6389,7 +5855,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>132</v>
       </c>
@@ -6408,7 +5874,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>133</v>
       </c>
@@ -6427,7 +5893,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>134</v>
       </c>
@@ -6446,7 +5912,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -6465,7 +5931,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -6484,7 +5950,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -6503,7 +5969,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -6522,7 +5988,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -6541,7 +6007,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -6560,7 +6026,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -6579,7 +6045,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -6598,7 +6064,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>135</v>
       </c>
@@ -6617,7 +6083,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
@@ -6636,7 +6102,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>137</v>
       </c>
@@ -6655,7 +6121,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>138</v>
       </c>
@@ -6674,7 +6140,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>139</v>
       </c>
@@ -6693,7 +6159,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
@@ -6712,7 +6178,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
@@ -6744,17 +6210,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>145</v>
       </c>
@@ -6771,7 +6237,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6800,7 +6266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -6823,7 +6289,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -6842,7 +6308,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -6861,7 +6327,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -6880,7 +6346,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -6899,7 +6365,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -6918,7 +6384,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -6937,7 +6403,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -6956,7 +6422,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -6975,7 +6441,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>150</v>
       </c>
@@ -6994,7 +6460,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
@@ -7013,7 +6479,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -7032,7 +6498,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>134</v>
       </c>
@@ -7059,30 +6525,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDC3A1A-6D64-4846-AB8B-6023EB2855C0}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D498C45-4A38-48C5-B7C2-1A3D29ADEC4B}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -7091,7 +6559,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -7120,7 +6588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -7143,37 +6611,39 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -7183,18 +6653,18 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7204,18 +6674,18 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -7223,18 +6693,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -7242,18 +6710,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -7261,18 +6729,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -7280,18 +6748,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -7299,18 +6767,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7318,18 +6786,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -7337,18 +6805,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -7356,18 +6824,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7375,24 +6843,469 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7402,30 +7315,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D498C45-4A38-48C5-B7C2-1A3D29ADEC4B}">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2872F1-E284-4BA5-A183-2D265C5934D9}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -7434,7 +7349,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -7463,7 +7378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -7486,18 +7401,16 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>173</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -7507,18 +7420,18 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -7528,7 +7441,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -7549,15 +7462,15 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>27</v>
@@ -7568,16 +7481,18 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -7585,18 +7500,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -7604,18 +7517,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -7623,18 +7536,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -7642,18 +7555,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -7661,18 +7574,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -7680,15 +7593,15 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
@@ -7699,18 +7612,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7718,18 +7631,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -7737,18 +7650,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -7756,18 +7669,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -7775,15 +7688,15 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>51</v>
@@ -7794,18 +7707,18 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -7813,18 +7726,18 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -7832,18 +7745,18 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -7851,15 +7764,15 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>51</v>
@@ -7870,18 +7783,18 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -7889,18 +7802,18 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -7908,214 +7821,24 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8125,32 +7848,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2872F1-E284-4BA5-A183-2D265C5934D9}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF25AA8E-B48E-4846-93BC-74961DFD1522}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8159,7 +7880,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8188,8 +7909,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -8211,16 +7932,18 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -8230,18 +7953,18 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -8251,18 +7974,18 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -8272,18 +7995,18 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -8291,18 +8014,18 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -8310,16 +8033,18 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -8327,18 +8052,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8346,18 +8071,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -8365,18 +8090,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -8384,18 +8109,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8403,15 +8128,15 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
@@ -8422,18 +8147,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -8441,18 +8166,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -8460,18 +8185,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -8479,18 +8204,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -8498,157 +8223,24 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8658,30 +8250,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF25AA8E-B48E-4846-93BC-74961DFD1522}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1632BED0-C441-4E06-981F-A19728540DAF}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -8690,7 +8284,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8719,16 +8313,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
@@ -8742,37 +8334,31 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>88</v>
       </c>
@@ -8784,18 +8370,16 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>266</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -8805,18 +8389,16 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>269</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -8824,37 +8406,37 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -8862,18 +8444,16 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -8881,18 +8461,18 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -8900,18 +8480,18 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>331</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -8919,18 +8499,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8938,18 +8518,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -8957,18 +8537,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -8976,18 +8556,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -8995,18 +8575,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -9014,18 +8594,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -9033,24 +8613,442 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9060,30 +9058,31 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1632BED0-C441-4E06-981F-A19728540DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAA2679-6452-4AB6-AD7A-944F41A8D7E4}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -9092,7 +9091,7 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -9142,12 +9141,12 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -9159,12 +9158,12 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -9178,16 +9177,16 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -9197,16 +9196,18 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -9214,37 +9215,37 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>358</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -9252,16 +9253,18 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>387</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -9269,56 +9272,56 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>287</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>289</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>366</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -9326,18 +9329,18 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -9345,18 +9348,18 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -9364,18 +9367,18 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>344</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -9383,18 +9386,18 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -9402,18 +9405,18 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -9421,18 +9424,18 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>347</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -9440,18 +9443,18 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -9459,18 +9462,18 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>309</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -9478,18 +9481,18 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>350</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -9497,18 +9500,18 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -9516,18 +9519,18 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -9535,18 +9538,18 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>317</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -9554,18 +9557,18 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -9573,15 +9576,15 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>27</v>
@@ -9592,18 +9595,18 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -9611,233 +9614,8 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
